--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Dlk1-Notch3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Dlk1-Notch3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.02061333333333333</v>
+        <v>0.04110066666666667</v>
       </c>
       <c r="H2">
-        <v>0.06184</v>
+        <v>0.123302</v>
       </c>
       <c r="I2">
-        <v>0.003258757634485539</v>
+        <v>0.02671259512010182</v>
       </c>
       <c r="J2">
-        <v>0.003258757634485539</v>
+        <v>0.02671259512010182</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.987818</v>
+        <v>19.412944</v>
       </c>
       <c r="N2">
-        <v>8.963454</v>
+        <v>58.238832</v>
       </c>
       <c r="O2">
-        <v>0.03670737884717296</v>
+        <v>0.3138213864953257</v>
       </c>
       <c r="P2">
-        <v>0.03670737884717296</v>
+        <v>0.3138213864953256</v>
       </c>
       <c r="Q2">
-        <v>0.06158888837333334</v>
+        <v>0.7978849403626667</v>
       </c>
       <c r="R2">
-        <v>0.5542999953600001</v>
+        <v>7.180964463263999</v>
       </c>
       <c r="S2">
-        <v>0.0001196204510601779</v>
+        <v>0.008382983637478626</v>
       </c>
       <c r="T2">
-        <v>0.0001196204510601779</v>
+        <v>0.008382983637478622</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.02061333333333333</v>
+        <v>0.04110066666666667</v>
       </c>
       <c r="H3">
-        <v>0.06184</v>
+        <v>0.123302</v>
       </c>
       <c r="I3">
-        <v>0.003258757634485539</v>
+        <v>0.02671259512010182</v>
       </c>
       <c r="J3">
-        <v>0.003258757634485539</v>
+        <v>0.02671259512010182</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +626,22 @@
         <v>14.22398</v>
       </c>
       <c r="O3">
-        <v>0.05825042696427194</v>
+        <v>0.07664626799317993</v>
       </c>
       <c r="P3">
-        <v>0.05825042696427195</v>
+        <v>0.07664626799317992</v>
       </c>
       <c r="Q3">
-        <v>0.09773454702222223</v>
+        <v>0.1948716868844445</v>
       </c>
       <c r="R3">
-        <v>0.8796109232</v>
+        <v>1.75384518196</v>
       </c>
       <c r="S3">
-        <v>0.0001898240235818635</v>
+        <v>0.002047420724368635</v>
       </c>
       <c r="T3">
-        <v>0.0001898240235818635</v>
+        <v>0.002047420724368634</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.02061333333333333</v>
+        <v>0.04110066666666667</v>
       </c>
       <c r="H4">
-        <v>0.06184</v>
+        <v>0.123302</v>
       </c>
       <c r="I4">
-        <v>0.003258757634485539</v>
+        <v>0.02671259512010182</v>
       </c>
       <c r="J4">
-        <v>0.003258757634485539</v>
+        <v>0.02671259512010182</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.1099783333333333</v>
+        <v>0.08199133333333333</v>
       </c>
       <c r="N4">
-        <v>0.329935</v>
+        <v>0.245974</v>
       </c>
       <c r="O4">
-        <v>0.001351158720727747</v>
+        <v>0.001325436982008864</v>
       </c>
       <c r="P4">
-        <v>0.001351158720727747</v>
+        <v>0.001325436982008864</v>
       </c>
       <c r="Q4">
-        <v>0.002267020044444444</v>
+        <v>0.003369898460888889</v>
       </c>
       <c r="R4">
-        <v>0.0204031804</v>
+        <v>0.030329086148</v>
       </c>
       <c r="S4">
-        <v>4.403098796573261E-06</v>
+        <v>3.540586145761246E-05</v>
       </c>
       <c r="T4">
-        <v>4.403098796573261E-06</v>
+        <v>3.540586145761246E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.02061333333333333</v>
+        <v>0.04110066666666667</v>
       </c>
       <c r="H5">
-        <v>0.06184</v>
+        <v>0.123302</v>
       </c>
       <c r="I5">
-        <v>0.003258757634485539</v>
+        <v>0.02671259512010182</v>
       </c>
       <c r="J5">
-        <v>0.003258757634485539</v>
+        <v>0.02671259512010182</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>72.98704766666667</v>
+        <v>37.49275133333333</v>
       </c>
       <c r="N5">
-        <v>218.961143</v>
+        <v>112.478254</v>
       </c>
       <c r="O5">
-        <v>0.8966955850848359</v>
+        <v>0.6060918532990739</v>
       </c>
       <c r="P5">
-        <v>0.8966955850848359</v>
+        <v>0.6060918532990738</v>
       </c>
       <c r="Q5">
-        <v>1.504506342568889</v>
+        <v>1.540977074967556</v>
       </c>
       <c r="R5">
-        <v>13.54055708312</v>
+        <v>13.868793674708</v>
       </c>
       <c r="S5">
-        <v>0.002922113583704687</v>
+        <v>0.01619028628277031</v>
       </c>
       <c r="T5">
-        <v>0.002922113583704687</v>
+        <v>0.01619028628277031</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +788,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.02061333333333333</v>
+        <v>0.04110066666666667</v>
       </c>
       <c r="H6">
-        <v>0.06184</v>
+        <v>0.123302</v>
       </c>
       <c r="I6">
-        <v>0.003258757634485539</v>
+        <v>0.02671259512010182</v>
       </c>
       <c r="J6">
-        <v>0.003258757634485539</v>
+        <v>0.02671259512010182</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,33 +806,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.357675</v>
+        <v>0.130837</v>
       </c>
       <c r="N6">
-        <v>1.073025</v>
+        <v>0.3925110000000001</v>
       </c>
       <c r="O6">
-        <v>0.004394280953245005</v>
+        <v>0.002115055230411674</v>
       </c>
       <c r="P6">
-        <v>0.004394280953245006</v>
+        <v>0.002115055230411674</v>
       </c>
       <c r="Q6">
-        <v>0.007372874</v>
+        <v>0.005377487924666667</v>
       </c>
       <c r="R6">
-        <v>0.066355866</v>
+        <v>0.04839739132200001</v>
       </c>
       <c r="S6">
-        <v>1.431989660446155E-05</v>
+        <v>5.649861402664073E-05</v>
       </c>
       <c r="T6">
-        <v>1.431989660446156E-05</v>
+        <v>5.649861402664073E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,25 +841,25 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.02061333333333333</v>
+        <v>0.9789586666666666</v>
       </c>
       <c r="H7">
-        <v>0.06184</v>
+        <v>2.936876</v>
       </c>
       <c r="I7">
-        <v>0.003258757634485539</v>
+        <v>0.6362555311831452</v>
       </c>
       <c r="J7">
-        <v>0.003258757634485539</v>
+        <v>0.636255531183145</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2117236666666667</v>
+        <v>19.412944</v>
       </c>
       <c r="N7">
-        <v>0.635171</v>
+        <v>58.238832</v>
       </c>
       <c r="O7">
-        <v>0.002601169429746356</v>
+        <v>0.3138213864953257</v>
       </c>
       <c r="P7">
-        <v>0.002601169429746356</v>
+        <v>0.3138213864953256</v>
       </c>
       <c r="Q7">
-        <v>0.004364330515555556</v>
+        <v>19.00446977431466</v>
       </c>
       <c r="R7">
-        <v>0.03927897464</v>
+        <v>171.040227968832</v>
       </c>
       <c r="S7">
-        <v>8.476580737776334E-06</v>
+        <v>0.1996705929612146</v>
       </c>
       <c r="T7">
-        <v>8.476580737776334E-06</v>
+        <v>0.1996705929612144</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +903,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,10 +918,10 @@
         <v>2.936876</v>
       </c>
       <c r="I8">
-        <v>0.1547633746205911</v>
+        <v>0.6362555311831452</v>
       </c>
       <c r="J8">
-        <v>0.1547633746205911</v>
+        <v>0.636255531183145</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.987818</v>
+        <v>4.741326666666667</v>
       </c>
       <c r="N8">
-        <v>8.963454</v>
+        <v>14.22398</v>
       </c>
       <c r="O8">
-        <v>0.03670737884717296</v>
+        <v>0.07664626799317993</v>
       </c>
       <c r="P8">
-        <v>0.03670737884717296</v>
+        <v>0.07664626799317992</v>
       </c>
       <c r="Q8">
-        <v>2.924950325522667</v>
+        <v>4.641562831831111</v>
       </c>
       <c r="R8">
-        <v>26.324552929704</v>
+        <v>41.77406548648</v>
       </c>
       <c r="S8">
-        <v>0.00568095782386499</v>
+        <v>0.04876661195520639</v>
       </c>
       <c r="T8">
-        <v>0.00568095782386499</v>
+        <v>0.04876661195520637</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +965,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +980,40 @@
         <v>2.936876</v>
       </c>
       <c r="I9">
-        <v>0.1547633746205911</v>
+        <v>0.6362555311831452</v>
       </c>
       <c r="J9">
-        <v>0.1547633746205911</v>
+        <v>0.636255531183145</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>4.741326666666667</v>
+        <v>0.08199133333333333</v>
       </c>
       <c r="N9">
-        <v>14.22398</v>
+        <v>0.245974</v>
       </c>
       <c r="O9">
-        <v>0.05825042696427194</v>
+        <v>0.001325436982008864</v>
       </c>
       <c r="P9">
-        <v>0.05825042696427195</v>
+        <v>0.001325436982008864</v>
       </c>
       <c r="Q9">
-        <v>4.641562831831111</v>
+        <v>0.08026612635822222</v>
       </c>
       <c r="R9">
-        <v>41.77406548648</v>
+        <v>0.722395137224</v>
       </c>
       <c r="S9">
-        <v>0.009015032650080999</v>
+        <v>0.0008433166110378345</v>
       </c>
       <c r="T9">
-        <v>0.009015032650080999</v>
+        <v>0.0008433166110378343</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1027,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,40 +1042,40 @@
         <v>2.936876</v>
       </c>
       <c r="I10">
-        <v>0.1547633746205911</v>
+        <v>0.6362555311831452</v>
       </c>
       <c r="J10">
-        <v>0.1547633746205911</v>
+        <v>0.636255531183145</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1099783333333333</v>
+        <v>37.49275133333333</v>
       </c>
       <c r="N10">
-        <v>0.329935</v>
+        <v>112.478254</v>
       </c>
       <c r="O10">
-        <v>0.001351158720727747</v>
+        <v>0.6060918532990739</v>
       </c>
       <c r="P10">
-        <v>0.001351158720727747</v>
+        <v>0.6060918532990738</v>
       </c>
       <c r="Q10">
-        <v>0.1076642425622222</v>
+        <v>36.70385385494489</v>
       </c>
       <c r="R10">
-        <v>0.9689781830599998</v>
+        <v>330.3346846945039</v>
       </c>
       <c r="S10">
-        <v>0.000209109883267867</v>
+        <v>0.3856292940665791</v>
       </c>
       <c r="T10">
-        <v>0.0002091098832678669</v>
+        <v>0.385629294066579</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1089,7 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,45 +1104,45 @@
         <v>2.936876</v>
       </c>
       <c r="I11">
-        <v>0.1547633746205911</v>
+        <v>0.6362555311831452</v>
       </c>
       <c r="J11">
-        <v>0.1547633746205911</v>
+        <v>0.636255531183145</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>72.98704766666667</v>
+        <v>0.130837</v>
       </c>
       <c r="N11">
-        <v>218.961143</v>
+        <v>0.3925110000000001</v>
       </c>
       <c r="O11">
-        <v>0.8966955850848359</v>
+        <v>0.002115055230411674</v>
       </c>
       <c r="P11">
-        <v>0.8966955850848359</v>
+        <v>0.002115055230411674</v>
       </c>
       <c r="Q11">
-        <v>71.45130286769644</v>
+        <v>0.1280840150706667</v>
       </c>
       <c r="R11">
-        <v>643.061725809268</v>
+        <v>1.152756135636</v>
       </c>
       <c r="S11">
-        <v>0.1387756347551146</v>
+        <v>0.001345715589107269</v>
       </c>
       <c r="T11">
-        <v>0.1387756347551145</v>
+        <v>0.001345715589107269</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
@@ -1154,7 +1151,7 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,51 +1160,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.9789586666666666</v>
+        <v>0.5185656666666667</v>
       </c>
       <c r="H12">
-        <v>2.936876</v>
+        <v>1.555697</v>
       </c>
       <c r="I12">
-        <v>0.1547633746205911</v>
+        <v>0.3370318736967531</v>
       </c>
       <c r="J12">
-        <v>0.1547633746205911</v>
+        <v>0.3370318736967531</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.357675</v>
+        <v>19.412944</v>
       </c>
       <c r="N12">
-        <v>1.073025</v>
+        <v>58.238832</v>
       </c>
       <c r="O12">
-        <v>0.004394280953245005</v>
+        <v>0.3138213864953257</v>
       </c>
       <c r="P12">
-        <v>0.004394280953245006</v>
+        <v>0.3138213864953256</v>
       </c>
       <c r="Q12">
-        <v>0.3501490410999999</v>
+        <v>10.06688624732267</v>
       </c>
       <c r="R12">
-        <v>3.151341369899999</v>
+        <v>90.601976225904</v>
       </c>
       <c r="S12">
-        <v>0.0006800737493551848</v>
+        <v>0.1057678098966326</v>
       </c>
       <c r="T12">
-        <v>0.0006800737493551848</v>
+        <v>0.1057678098966325</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
@@ -1216,7 +1213,7 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.9789586666666666</v>
+        <v>0.5185656666666667</v>
       </c>
       <c r="H13">
-        <v>2.936876</v>
+        <v>1.555697</v>
       </c>
       <c r="I13">
-        <v>0.1547633746205911</v>
+        <v>0.3370318736967531</v>
       </c>
       <c r="J13">
-        <v>0.1547633746205911</v>
+        <v>0.3370318736967531</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2117236666666667</v>
+        <v>4.741326666666667</v>
       </c>
       <c r="N13">
-        <v>0.635171</v>
+        <v>14.22398</v>
       </c>
       <c r="O13">
-        <v>0.002601169429746356</v>
+        <v>0.07664626799317993</v>
       </c>
       <c r="P13">
-        <v>0.002601169429746356</v>
+        <v>0.07664626799317992</v>
       </c>
       <c r="Q13">
-        <v>0.2072687184217778</v>
+        <v>2.458689223784444</v>
       </c>
       <c r="R13">
-        <v>1.865418465796</v>
+        <v>22.12820301406</v>
       </c>
       <c r="S13">
-        <v>0.0004025657589074646</v>
+        <v>0.02583223531360491</v>
       </c>
       <c r="T13">
-        <v>0.0004025657589074645</v>
+        <v>0.0258322353136049</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1275,7 @@
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.325947</v>
+        <v>0.5185656666666667</v>
       </c>
       <c r="H14">
-        <v>15.977841</v>
+        <v>1.555697</v>
       </c>
       <c r="I14">
-        <v>0.8419778677449234</v>
+        <v>0.3370318736967531</v>
       </c>
       <c r="J14">
-        <v>0.8419778677449233</v>
+        <v>0.3370318736967531</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>2.987818</v>
+        <v>0.08199133333333333</v>
       </c>
       <c r="N14">
-        <v>8.963454</v>
+        <v>0.245974</v>
       </c>
       <c r="O14">
-        <v>0.03670737884717296</v>
+        <v>0.001325436982008864</v>
       </c>
       <c r="P14">
-        <v>0.03670737884717296</v>
+        <v>0.001325436982008864</v>
       </c>
       <c r="Q14">
-        <v>15.912960313646</v>
+        <v>0.04251789043088889</v>
       </c>
       <c r="R14">
-        <v>143.216642822814</v>
+        <v>0.382661013878</v>
       </c>
       <c r="S14">
-        <v>0.0309068005722478</v>
+        <v>0.000446714509513417</v>
       </c>
       <c r="T14">
-        <v>0.03090680057224779</v>
+        <v>0.0004467145095134169</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1337,7 @@
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.325947</v>
+        <v>0.5185656666666667</v>
       </c>
       <c r="H15">
-        <v>15.977841</v>
+        <v>1.555697</v>
       </c>
       <c r="I15">
-        <v>0.8419778677449234</v>
+        <v>0.3370318736967531</v>
       </c>
       <c r="J15">
-        <v>0.8419778677449233</v>
+        <v>0.3370318736967531</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.741326666666667</v>
+        <v>37.49275133333333</v>
       </c>
       <c r="N15">
-        <v>14.22398</v>
+        <v>112.478254</v>
       </c>
       <c r="O15">
-        <v>0.05825042696427194</v>
+        <v>0.6060918532990739</v>
       </c>
       <c r="P15">
-        <v>0.05825042696427195</v>
+        <v>0.6060918532990738</v>
       </c>
       <c r="Q15">
-        <v>25.25205453635333</v>
+        <v>19.44245359033756</v>
       </c>
       <c r="R15">
-        <v>227.26849082718</v>
+        <v>174.982082313038</v>
       </c>
       <c r="S15">
-        <v>0.04904557029060908</v>
+        <v>0.2042722729497245</v>
       </c>
       <c r="T15">
-        <v>0.04904557029060908</v>
+        <v>0.2042722729497244</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1399,7 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.325947</v>
+        <v>0.5185656666666667</v>
       </c>
       <c r="H16">
-        <v>15.977841</v>
+        <v>1.555697</v>
       </c>
       <c r="I16">
-        <v>0.8419778677449234</v>
+        <v>0.3370318736967531</v>
       </c>
       <c r="J16">
-        <v>0.8419778677449233</v>
+        <v>0.3370318736967531</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1429,214 +1426,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.1099783333333333</v>
+        <v>0.130837</v>
       </c>
       <c r="N16">
-        <v>0.329935</v>
+        <v>0.3925110000000001</v>
       </c>
       <c r="O16">
-        <v>0.001351158720727747</v>
+        <v>0.002115055230411674</v>
       </c>
       <c r="P16">
-        <v>0.001351158720727747</v>
+        <v>0.002115055230411674</v>
       </c>
       <c r="Q16">
-        <v>0.5857387744816667</v>
+        <v>0.06784757612966667</v>
       </c>
       <c r="R16">
-        <v>5.271648970335</v>
+        <v>0.6106281851670001</v>
       </c>
       <c r="S16">
-        <v>0.001137645738663307</v>
+        <v>0.0007128410272777644</v>
       </c>
       <c r="T16">
-        <v>0.001137645738663307</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>5.325947</v>
-      </c>
-      <c r="H17">
-        <v>15.977841</v>
-      </c>
-      <c r="I17">
-        <v>0.8419778677449234</v>
-      </c>
-      <c r="J17">
-        <v>0.8419778677449233</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>72.98704766666667</v>
-      </c>
-      <c r="N17">
-        <v>218.961143</v>
-      </c>
-      <c r="O17">
-        <v>0.8966955850848359</v>
-      </c>
-      <c r="P17">
-        <v>0.8966955850848359</v>
-      </c>
-      <c r="Q17">
-        <v>388.7251475591403</v>
-      </c>
-      <c r="R17">
-        <v>3498.526328032263</v>
-      </c>
-      <c r="S17">
-        <v>0.7549978367460167</v>
-      </c>
-      <c r="T17">
-        <v>0.7549978367460166</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>5.325947</v>
-      </c>
-      <c r="H18">
-        <v>15.977841</v>
-      </c>
-      <c r="I18">
-        <v>0.8419778677449234</v>
-      </c>
-      <c r="J18">
-        <v>0.8419778677449233</v>
-      </c>
-      <c r="K18">
-        <v>2</v>
-      </c>
-      <c r="L18">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M18">
-        <v>0.357675</v>
-      </c>
-      <c r="N18">
-        <v>1.073025</v>
-      </c>
-      <c r="O18">
-        <v>0.004394280953245005</v>
-      </c>
-      <c r="P18">
-        <v>0.004394280953245006</v>
-      </c>
-      <c r="Q18">
-        <v>1.904958093225</v>
-      </c>
-      <c r="R18">
-        <v>17.144622839025</v>
-      </c>
-      <c r="S18">
-        <v>0.003699887307285359</v>
-      </c>
-      <c r="T18">
-        <v>0.003699887307285359</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>5.325947</v>
-      </c>
-      <c r="H19">
-        <v>15.977841</v>
-      </c>
-      <c r="I19">
-        <v>0.8419778677449234</v>
-      </c>
-      <c r="J19">
-        <v>0.8419778677449233</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0.2117236666666667</v>
-      </c>
-      <c r="N19">
-        <v>0.635171</v>
-      </c>
-      <c r="O19">
-        <v>0.002601169429746356</v>
-      </c>
-      <c r="P19">
-        <v>0.002601169429746356</v>
-      </c>
-      <c r="Q19">
-        <v>1.127629027312333</v>
-      </c>
-      <c r="R19">
-        <v>10.148661245811</v>
-      </c>
-      <c r="S19">
-        <v>0.002190127090101115</v>
-      </c>
-      <c r="T19">
-        <v>0.002190127090101115</v>
+        <v>0.0007128410272777644</v>
       </c>
     </row>
   </sheetData>
